--- a/docs/Rancangan WBS.xlsx
+++ b/docs/Rancangan WBS.xlsx
@@ -265,7 +265,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,8 +296,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -458,11 +464,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -482,79 +503,70 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -837,7 +849,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E45"/>
+  <dimension ref="A2:N45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
@@ -850,10 +862,12 @@
     <col min="3" max="3" width="9.140625" style="3"/>
     <col min="4" max="4" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="3"/>
+    <col min="6" max="6" width="9.140625" style="3"/>
+    <col min="7" max="7" width="7.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -862,472 +876,875 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="24" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="F3" s="26">
+        <v>42429</v>
+      </c>
+      <c r="G3" s="26">
+        <v>42436</v>
+      </c>
+      <c r="H3" s="26">
+        <v>42443</v>
+      </c>
+      <c r="I3" s="26">
+        <v>42450</v>
+      </c>
+      <c r="J3" s="26">
+        <v>42457</v>
+      </c>
+      <c r="K3" s="26">
+        <v>42464</v>
+      </c>
+      <c r="L3" s="26">
+        <v>42471</v>
+      </c>
+      <c r="M3" s="26">
+        <v>42478</v>
+      </c>
+      <c r="N3" s="28"/>
+    </row>
+    <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="25" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14" t="s">
+      <c r="F4" s="27"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="28"/>
+    </row>
+    <row r="5" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="16" t="s">
+      <c r="D5" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="25" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="F5" s="27"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="28"/>
+    </row>
+    <row r="6" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="D6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="16" t="s">
+      <c r="B6" s="8"/>
+      <c r="D6" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="25" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="28"/>
+    </row>
+    <row r="7" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="D7" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="16" t="s">
+      <c r="B7" s="8"/>
+      <c r="D7" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="25" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="28"/>
+    </row>
+    <row r="8" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="16" t="s">
+      <c r="D8" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="25" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="28"/>
+    </row>
+    <row r="9" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="16" t="s">
+      <c r="D9" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="28"/>
+    </row>
+    <row r="10" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="16" t="s">
+      <c r="D10" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="16" t="s">
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="28"/>
+    </row>
+    <row r="11" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="28"/>
+    </row>
+    <row r="12" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="16" t="s">
+      <c r="D12" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="28"/>
+    </row>
+    <row r="13" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="16" t="s">
+      <c r="D13" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="25" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="28"/>
+    </row>
+    <row r="14" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="D14" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="16" t="s">
+      <c r="B14" s="17"/>
+      <c r="D14" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="25" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="28"/>
+    </row>
+    <row r="15" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="16" t="s">
+      <c r="D15" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="25" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27" t="s">
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="28"/>
+    </row>
+    <row r="16" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="16" t="s">
+      <c r="D16" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="25" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27" t="s">
+      <c r="F16" s="25"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="28"/>
+    </row>
+    <row r="17" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="16" t="s">
+      <c r="D17" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="25" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+      <c r="F17" s="25"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="28"/>
+    </row>
+    <row r="18" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="16" t="s">
+      <c r="D18" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="25" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="27" t="s">
+      <c r="F18" s="25"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="28"/>
+    </row>
+    <row r="19" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="16" t="s">
+      <c r="D19" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="25" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="27" t="s">
+      <c r="F19" s="25"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="28"/>
+    </row>
+    <row r="20" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="16" t="s">
+      <c r="D20" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="25" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+      <c r="F20" s="25"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="28"/>
+    </row>
+    <row r="21" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="16" t="s">
+      <c r="D21" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="25" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="27" t="s">
+      <c r="F21" s="25"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="28"/>
+    </row>
+    <row r="22" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="16" t="s">
+      <c r="D22" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="25" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="27" t="s">
+      <c r="F22" s="25"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="28"/>
+    </row>
+    <row r="23" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="16" t="s">
+      <c r="D23" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="25" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
+      <c r="F23" s="25"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="28"/>
+    </row>
+    <row r="24" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="16" t="s">
+      <c r="D24" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="25" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="27" t="s">
+      <c r="F24" s="25"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="28"/>
+    </row>
+    <row r="25" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="16" t="s">
+      <c r="D25" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="25" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="26"/>
-      <c r="B26" s="27" t="s">
+      <c r="F25" s="25"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="28"/>
+    </row>
+    <row r="26" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="28" t="s">
+      <c r="D26" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="25" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="28"/>
+    </row>
+    <row r="27" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="16" t="s">
+      <c r="D27" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="25" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="28"/>
+    </row>
+    <row r="28" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="16" t="s">
+      <c r="D28" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="25" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="16" t="s">
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="28"/>
+    </row>
+    <row r="29" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="25" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" s="16" t="s">
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="28"/>
+    </row>
+    <row r="30" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="25" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="16" t="s">
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="28"/>
+    </row>
+    <row r="31" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="25" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="16" t="s">
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="28"/>
+    </row>
+    <row r="32" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="25" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="33" spans="4:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E33" s="16" t="s">
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="28"/>
+    </row>
+    <row r="33" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="25" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="34" spans="4:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D34" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34" s="16" t="s">
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="28"/>
+    </row>
+    <row r="34" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="25" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="35" spans="4:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D35" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E35" s="16" t="s">
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="28"/>
+    </row>
+    <row r="35" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="25" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="36" spans="4:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E36" s="28" t="s">
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="28"/>
+    </row>
+    <row r="36" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="25" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="37" spans="4:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" s="16" t="s">
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="28"/>
+    </row>
+    <row r="37" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="25" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="38" spans="4:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E38" s="16" t="s">
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="28"/>
+    </row>
+    <row r="38" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" s="25" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="39" spans="4:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" s="16" t="s">
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="28"/>
+    </row>
+    <row r="39" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" s="25" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="40" spans="4:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D40" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E40" s="16" t="s">
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="28"/>
+    </row>
+    <row r="40" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" s="25" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="41" spans="4:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D41" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E41" s="16" t="s">
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="28"/>
+    </row>
+    <row r="41" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="25" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="42" spans="4:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D42" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E42" s="16" t="s">
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="28"/>
+    </row>
+    <row r="42" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="25" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="43" spans="4:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D43" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E43" s="16" t="s">
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="28"/>
+    </row>
+    <row r="43" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="25" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="44" spans="4:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D44" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E44" s="16" t="s">
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="28"/>
+    </row>
+    <row r="44" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="25" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="45" spans="4:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D45" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="E45" s="28" t="s">
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="28"/>
+    </row>
+    <row r="45" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="25" t="s">
         <v>56</v>
       </c>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/Rancangan WBS.xlsx
+++ b/docs/Rancangan WBS.xlsx
@@ -548,26 +548,26 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -852,7 +852,7 @@
   <dimension ref="A2:N45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -883,73 +883,73 @@
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="24">
         <v>42429</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="24">
         <v>42436</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="24">
         <v>42443</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="24">
         <v>42450</v>
       </c>
-      <c r="J3" s="26">
+      <c r="J3" s="24">
         <v>42457</v>
       </c>
-      <c r="K3" s="26">
+      <c r="K3" s="24">
         <v>42464</v>
       </c>
-      <c r="L3" s="26">
+      <c r="L3" s="24">
         <v>42471</v>
       </c>
-      <c r="M3" s="26">
+      <c r="M3" s="24">
         <v>42478</v>
       </c>
-      <c r="N3" s="28"/>
+      <c r="N3" s="26"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="25" t="s">
+      <c r="D4" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="28"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="26"/>
     </row>
     <row r="5" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="25" t="s">
+      <c r="D5" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="27"/>
+      <c r="F5" s="25"/>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
@@ -957,49 +957,49 @@
       <c r="K5" s="25"/>
       <c r="L5" s="25"/>
       <c r="M5" s="25"/>
-      <c r="N5" s="28"/>
+      <c r="N5" s="26"/>
     </row>
     <row r="6" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="D6" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="25" t="s">
+      <c r="D6" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="28"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="26"/>
     </row>
     <row r="7" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="D7" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="25" t="s">
+      <c r="D7" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="28"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="26"/>
     </row>
     <row r="8" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -1008,21 +1008,21 @@
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="25" t="s">
+      <c r="D8" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="28"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="26"/>
     </row>
     <row r="9" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
@@ -1031,21 +1031,21 @@
       <c r="B9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="25" t="s">
+      <c r="D9" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="28"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="26"/>
     </row>
     <row r="10" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
@@ -1054,58 +1054,58 @@
       <c r="B10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="25" t="s">
+      <c r="D10" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="28"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="26"/>
     </row>
     <row r="11" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="25" t="s">
+      <c r="D11" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="28"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="26"/>
     </row>
     <row r="12" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="25" t="s">
+      <c r="D12" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="28"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="26"/>
     </row>
     <row r="13" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
@@ -1114,42 +1114,42 @@
       <c r="B13" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="25" t="s">
+      <c r="D13" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="28"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="26"/>
     </row>
     <row r="14" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="17"/>
-      <c r="D14" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="25" t="s">
+      <c r="D14" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="28"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="26"/>
     </row>
     <row r="15" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
@@ -1158,63 +1158,63 @@
       <c r="B15" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="25" t="s">
+      <c r="D15" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="28"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="26"/>
     </row>
     <row r="16" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="25" t="s">
+      <c r="D16" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="28"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="26"/>
     </row>
     <row r="17" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="25" t="s">
+      <c r="D17" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="28"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="26"/>
     </row>
     <row r="18" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
@@ -1223,63 +1223,63 @@
       <c r="B18" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="25" t="s">
+      <c r="D18" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="28"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="26"/>
     </row>
     <row r="19" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="25" t="s">
+      <c r="D19" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="28"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="26"/>
     </row>
     <row r="20" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="25" t="s">
+      <c r="D20" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="28"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="26"/>
     </row>
     <row r="21" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
@@ -1288,63 +1288,63 @@
       <c r="B21" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="25" t="s">
+      <c r="D21" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="28"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="26"/>
     </row>
     <row r="22" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
       <c r="B22" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="25" t="s">
+      <c r="D22" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="28"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="26"/>
     </row>
     <row r="23" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="25" t="s">
+      <c r="D23" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="28"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="26"/>
     </row>
     <row r="24" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
@@ -1353,63 +1353,63 @@
       <c r="B24" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="25" t="s">
+      <c r="D24" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="25"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="28"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="26"/>
     </row>
     <row r="25" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="25" t="s">
+      <c r="D25" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="25"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="28"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="26"/>
     </row>
     <row r="26" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="25" t="s">
+      <c r="D26" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="28"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="26"/>
     </row>
     <row r="27" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
@@ -1418,21 +1418,21 @@
       <c r="B27" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="25" t="s">
+      <c r="D27" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="28"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="26"/>
     </row>
     <row r="28" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
@@ -1441,310 +1441,310 @@
       <c r="B28" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="25" t="s">
+      <c r="D28" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="28"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="26"/>
     </row>
     <row r="29" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="25" t="s">
+      <c r="D29" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="28"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="26"/>
     </row>
     <row r="30" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" s="25" t="s">
+      <c r="D30" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="28"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="26"/>
     </row>
     <row r="31" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="25" t="s">
+      <c r="D31" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="28"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="26"/>
     </row>
     <row r="32" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="25" t="s">
+      <c r="D32" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="28"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="26"/>
     </row>
     <row r="33" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E33" s="25" t="s">
+      <c r="D33" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="28"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="26"/>
     </row>
     <row r="34" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D34" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34" s="25" t="s">
+      <c r="D34" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="28"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="26"/>
     </row>
     <row r="35" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D35" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E35" s="25" t="s">
+      <c r="D35" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="28"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="26"/>
     </row>
     <row r="36" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D36" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E36" s="25" t="s">
+      <c r="D36" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="28"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="26"/>
     </row>
     <row r="37" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" s="25" t="s">
+      <c r="D37" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="28"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="26"/>
     </row>
     <row r="38" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E38" s="25" t="s">
+      <c r="D38" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="28"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="26"/>
     </row>
     <row r="39" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" s="25" t="s">
+      <c r="D39" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="28"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="26"/>
     </row>
     <row r="40" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D40" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E40" s="25" t="s">
+      <c r="D40" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="28"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="26"/>
     </row>
     <row r="41" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D41" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E41" s="25" t="s">
+      <c r="D41" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="28"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="26"/>
     </row>
     <row r="42" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D42" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E42" s="25" t="s">
+      <c r="D42" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="28"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="26"/>
     </row>
     <row r="43" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D43" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E43" s="25" t="s">
+      <c r="D43" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="28"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="26"/>
     </row>
     <row r="44" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D44" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E44" s="25" t="s">
+      <c r="D44" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="28"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="26"/>
     </row>
     <row r="45" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D45" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E45" s="25" t="s">
+      <c r="D45" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="28"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/Rancangan WBS.xlsx
+++ b/docs/Rancangan WBS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="104">
   <si>
     <t>Requirement:</t>
   </si>
@@ -237,6 +237,105 @@
   </si>
   <si>
     <t>Frontend</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>nim</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>auth_level</t>
+  </si>
+  <si>
+    <t>beasiswa</t>
+  </si>
+  <si>
+    <t>kategori</t>
+  </si>
+  <si>
+    <t>creation date(otomatis)</t>
+  </si>
+  <si>
+    <t>update date(otomatis)</t>
+  </si>
+  <si>
+    <t>DATABASE</t>
+  </si>
+  <si>
+    <t>beasiswa_content</t>
+  </si>
+  <si>
+    <t>beasiswa_id</t>
+  </si>
+  <si>
+    <t>sumber</t>
+  </si>
+  <si>
+    <t>jumlah</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>news_content</t>
+  </si>
+  <si>
+    <t>news_id</t>
+  </si>
+  <si>
+    <t>ukm</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>ukm_content</t>
+  </si>
+  <si>
+    <t>header_pic</t>
+  </si>
+  <si>
+    <t>ukm_id</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t>deadline_date</t>
+  </si>
+  <si>
+    <t>creation_date(otomatis)</t>
+  </si>
+  <si>
+    <t>update_date(otomatis)</t>
+  </si>
+  <si>
+    <t>tempat</t>
+  </si>
+  <si>
+    <t>event_date</t>
+  </si>
+  <si>
+    <t>event_content</t>
+  </si>
+  <si>
+    <t>event_id</t>
   </si>
 </sst>
 </file>
@@ -849,10 +948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N45"/>
+  <dimension ref="A2:X45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -864,10 +963,19 @@
     <col min="5" max="5" width="38.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="3"/>
     <col min="7" max="7" width="7.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="8" max="15" width="9.140625" style="3"/>
+    <col min="16" max="17" width="31.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="31.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="31.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -875,8 +983,11 @@
       <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P2" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -914,8 +1025,35 @@
         <v>42478</v>
       </c>
       <c r="N3" s="26"/>
-    </row>
-    <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>3</v>
       </c>
@@ -937,8 +1075,35 @@
       <c r="L4" s="23"/>
       <c r="M4" s="23"/>
       <c r="N4" s="26"/>
-    </row>
-    <row r="5" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="8" t="s">
         <v>7</v>
@@ -958,8 +1123,35 @@
       <c r="L5" s="25"/>
       <c r="M5" s="25"/>
       <c r="N5" s="26"/>
-    </row>
-    <row r="6" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>17</v>
       </c>
@@ -979,8 +1171,35 @@
       <c r="L6" s="23"/>
       <c r="M6" s="23"/>
       <c r="N6" s="26"/>
-    </row>
-    <row r="7" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>2</v>
       </c>
@@ -1000,8 +1219,32 @@
       <c r="L7" s="23"/>
       <c r="M7" s="23"/>
       <c r="N7" s="26"/>
-    </row>
-    <row r="8" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
@@ -1023,8 +1266,17 @@
       <c r="L8" s="23"/>
       <c r="M8" s="23"/>
       <c r="N8" s="26"/>
-    </row>
-    <row r="9" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>22</v>
       </c>
@@ -1046,8 +1298,17 @@
       <c r="L9" s="23"/>
       <c r="M9" s="23"/>
       <c r="N9" s="26"/>
-    </row>
-    <row r="10" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>15</v>
       </c>
@@ -1069,8 +1330,17 @@
       <c r="L10" s="23"/>
       <c r="M10" s="23"/>
       <c r="N10" s="26"/>
-    </row>
-    <row r="11" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="23" t="s">
         <v>69</v>
       </c>
@@ -1086,8 +1356,14 @@
       <c r="L11" s="23"/>
       <c r="M11" s="23"/>
       <c r="N11" s="26"/>
-    </row>
-    <row r="12" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -1107,7 +1383,7 @@
       <c r="M12" s="23"/>
       <c r="N12" s="26"/>
     </row>
-    <row r="13" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>5</v>
       </c>
@@ -1130,7 +1406,7 @@
       <c r="M13" s="23"/>
       <c r="N13" s="26"/>
     </row>
-    <row r="14" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>11</v>
       </c>
@@ -1151,7 +1427,7 @@
       <c r="M14" s="23"/>
       <c r="N14" s="26"/>
     </row>
-    <row r="15" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>12</v>
       </c>
@@ -1174,7 +1450,7 @@
       <c r="M15" s="23"/>
       <c r="N15" s="26"/>
     </row>
-    <row r="16" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="19" t="s">
         <v>13</v>

--- a/docs/Rancangan WBS.xlsx
+++ b/docs/Rancangan WBS.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SiTiOne\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="104">
   <si>
     <t>Requirement:</t>
   </si>
@@ -245,9 +240,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>nim</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
@@ -336,13 +328,16 @@
   </si>
   <si>
     <t>event_id</t>
+  </si>
+  <si>
+    <t>images</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -728,7 +723,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -763,7 +758,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -940,21 +935,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:X45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:Y45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="19.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" style="3" bestFit="1" customWidth="1"/>
@@ -975,7 +970,7 @@
     <col min="25" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="19.5" customHeight="1" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -984,10 +979,10 @@
         <v>1</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1029,31 +1024,34 @@
         <v>71</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="T3" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="T3" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="U3" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="19.5" customHeight="1">
       <c r="A4" s="27" t="s">
         <v>3</v>
       </c>
@@ -1082,28 +1080,31 @@
         <v>72</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S4" s="3" t="s">
         <v>72</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U4" s="3" t="s">
         <v>72</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W4" s="3" t="s">
         <v>72</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="19.5" customHeight="1">
       <c r="A5" s="28"/>
       <c r="B5" s="8" t="s">
         <v>7</v>
@@ -1124,34 +1125,37 @@
       <c r="M5" s="25"/>
       <c r="N5" s="26"/>
       <c r="P5" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R5" s="3" t="s">
         <v>72</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T5" s="3" t="s">
         <v>72</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V5" s="3" t="s">
         <v>72</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X5" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y5" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="19.5" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>17</v>
       </c>
@@ -1172,34 +1176,34 @@
       <c r="M6" s="23"/>
       <c r="N6" s="26"/>
       <c r="P6" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="19.5" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>2</v>
       </c>
@@ -1220,31 +1224,31 @@
       <c r="M7" s="23"/>
       <c r="N7" s="26"/>
       <c r="P7" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="19.5" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
@@ -1267,16 +1271,16 @@
       <c r="M8" s="23"/>
       <c r="N8" s="26"/>
       <c r="P8" s="3" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="19.5" customHeight="1">
       <c r="A9" s="10" t="s">
         <v>22</v>
       </c>
@@ -1299,16 +1303,16 @@
       <c r="M9" s="23"/>
       <c r="N9" s="26"/>
       <c r="P9" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="19.5" customHeight="1" thickBot="1">
       <c r="A10" s="12" t="s">
         <v>15</v>
       </c>
@@ -1330,17 +1334,14 @@
       <c r="L10" s="23"/>
       <c r="M10" s="23"/>
       <c r="N10" s="26"/>
-      <c r="P10" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="Q10" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="19.5" customHeight="1">
       <c r="D11" s="23" t="s">
         <v>69</v>
       </c>
@@ -1357,13 +1358,13 @@
       <c r="M11" s="23"/>
       <c r="N11" s="26"/>
       <c r="Q11" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="19.5" customHeight="1" thickBot="1">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -1383,7 +1384,7 @@
       <c r="M12" s="23"/>
       <c r="N12" s="26"/>
     </row>
-    <row r="13" spans="1:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" ht="19.5" customHeight="1" thickBot="1">
       <c r="A13" s="14" t="s">
         <v>5</v>
       </c>
@@ -1406,7 +1407,7 @@
       <c r="M13" s="23"/>
       <c r="N13" s="26"/>
     </row>
-    <row r="14" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="19.5" customHeight="1">
       <c r="A14" s="16" t="s">
         <v>11</v>
       </c>
@@ -1427,7 +1428,7 @@
       <c r="M14" s="23"/>
       <c r="N14" s="26"/>
     </row>
-    <row r="15" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="19.5" customHeight="1">
       <c r="A15" s="18" t="s">
         <v>12</v>
       </c>
@@ -1450,7 +1451,7 @@
       <c r="M15" s="23"/>
       <c r="N15" s="26"/>
     </row>
-    <row r="16" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="19.5" customHeight="1">
       <c r="A16" s="18"/>
       <c r="B16" s="19" t="s">
         <v>13</v>
@@ -1471,7 +1472,7 @@
       <c r="M16" s="23"/>
       <c r="N16" s="26"/>
     </row>
-    <row r="17" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="19.5" customHeight="1">
       <c r="A17" s="18"/>
       <c r="B17" s="19" t="s">
         <v>21</v>
@@ -1492,7 +1493,7 @@
       <c r="M17" s="23"/>
       <c r="N17" s="26"/>
     </row>
-    <row r="18" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="19.5" customHeight="1">
       <c r="A18" s="18" t="s">
         <v>16</v>
       </c>
@@ -1515,7 +1516,7 @@
       <c r="M18" s="23"/>
       <c r="N18" s="26"/>
     </row>
-    <row r="19" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="19.5" customHeight="1">
       <c r="A19" s="18"/>
       <c r="B19" s="19" t="s">
         <v>18</v>
@@ -1536,7 +1537,7 @@
       <c r="M19" s="23"/>
       <c r="N19" s="26"/>
     </row>
-    <row r="20" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="19.5" customHeight="1">
       <c r="A20" s="18"/>
       <c r="B20" s="19" t="s">
         <v>20</v>
@@ -1557,7 +1558,7 @@
       <c r="M20" s="23"/>
       <c r="N20" s="26"/>
     </row>
-    <row r="21" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="19.5" customHeight="1">
       <c r="A21" s="18" t="s">
         <v>24</v>
       </c>
@@ -1580,7 +1581,7 @@
       <c r="M21" s="23"/>
       <c r="N21" s="26"/>
     </row>
-    <row r="22" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="19.5" customHeight="1">
       <c r="A22" s="18"/>
       <c r="B22" s="19" t="s">
         <v>26</v>
@@ -1601,7 +1602,7 @@
       <c r="M22" s="23"/>
       <c r="N22" s="26"/>
     </row>
-    <row r="23" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="19.5" customHeight="1">
       <c r="A23" s="18"/>
       <c r="B23" s="19" t="s">
         <v>27</v>
@@ -1622,7 +1623,7 @@
       <c r="M23" s="23"/>
       <c r="N23" s="26"/>
     </row>
-    <row r="24" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="19.5" customHeight="1">
       <c r="A24" s="18" t="s">
         <v>28</v>
       </c>
@@ -1645,7 +1646,7 @@
       <c r="M24" s="23"/>
       <c r="N24" s="26"/>
     </row>
-    <row r="25" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="19.5" customHeight="1">
       <c r="A25" s="18"/>
       <c r="B25" s="19" t="s">
         <v>30</v>
@@ -1666,7 +1667,7 @@
       <c r="M25" s="23"/>
       <c r="N25" s="26"/>
     </row>
-    <row r="26" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="19.5" customHeight="1">
       <c r="A26" s="18"/>
       <c r="B26" s="19" t="s">
         <v>31</v>
@@ -1687,7 +1688,7 @@
       <c r="M26" s="23"/>
       <c r="N26" s="26"/>
     </row>
-    <row r="27" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="19.5" customHeight="1">
       <c r="A27" s="18" t="s">
         <v>32</v>
       </c>
@@ -1710,7 +1711,7 @@
       <c r="M27" s="23"/>
       <c r="N27" s="26"/>
     </row>
-    <row r="28" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
       <c r="A28" s="20" t="s">
         <v>34</v>
       </c>
@@ -1733,7 +1734,7 @@
       <c r="M28" s="23"/>
       <c r="N28" s="26"/>
     </row>
-    <row r="29" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="19.5" customHeight="1">
       <c r="D29" s="23" t="s">
         <v>70</v>
       </c>
@@ -1750,7 +1751,7 @@
       <c r="M29" s="23"/>
       <c r="N29" s="26"/>
     </row>
-    <row r="30" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="19.5" customHeight="1">
       <c r="D30" s="23" t="s">
         <v>70</v>
       </c>
@@ -1767,7 +1768,7 @@
       <c r="M30" s="23"/>
       <c r="N30" s="26"/>
     </row>
-    <row r="31" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="19.5" customHeight="1">
       <c r="D31" s="23" t="s">
         <v>69</v>
       </c>
@@ -1784,7 +1785,7 @@
       <c r="M31" s="23"/>
       <c r="N31" s="26"/>
     </row>
-    <row r="32" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="19.5" customHeight="1">
       <c r="D32" s="23" t="s">
         <v>69</v>
       </c>
@@ -1801,7 +1802,7 @@
       <c r="M32" s="23"/>
       <c r="N32" s="26"/>
     </row>
-    <row r="33" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:14" ht="19.5" customHeight="1">
       <c r="D33" s="23" t="s">
         <v>69</v>
       </c>
@@ -1818,7 +1819,7 @@
       <c r="M33" s="23"/>
       <c r="N33" s="26"/>
     </row>
-    <row r="34" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:14" ht="19.5" customHeight="1">
       <c r="D34" s="23" t="s">
         <v>69</v>
       </c>
@@ -1835,7 +1836,7 @@
       <c r="M34" s="23"/>
       <c r="N34" s="26"/>
     </row>
-    <row r="35" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:14" ht="19.5" customHeight="1">
       <c r="D35" s="23" t="s">
         <v>69</v>
       </c>
@@ -1852,7 +1853,7 @@
       <c r="M35" s="23"/>
       <c r="N35" s="26"/>
     </row>
-    <row r="36" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:14" ht="19.5" customHeight="1">
       <c r="D36" s="23" t="s">
         <v>70</v>
       </c>
@@ -1869,7 +1870,7 @@
       <c r="M36" s="23"/>
       <c r="N36" s="26"/>
     </row>
-    <row r="37" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:14" ht="19.5" customHeight="1">
       <c r="D37" s="23" t="s">
         <v>70</v>
       </c>
@@ -1886,7 +1887,7 @@
       <c r="M37" s="23"/>
       <c r="N37" s="26"/>
     </row>
-    <row r="38" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:14" ht="19.5" customHeight="1">
       <c r="D38" s="23" t="s">
         <v>70</v>
       </c>
@@ -1903,7 +1904,7 @@
       <c r="M38" s="23"/>
       <c r="N38" s="26"/>
     </row>
-    <row r="39" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:14" ht="19.5" customHeight="1">
       <c r="D39" s="23" t="s">
         <v>70</v>
       </c>
@@ -1920,7 +1921,7 @@
       <c r="M39" s="23"/>
       <c r="N39" s="26"/>
     </row>
-    <row r="40" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:14" ht="19.5" customHeight="1">
       <c r="D40" s="23" t="s">
         <v>70</v>
       </c>
@@ -1937,7 +1938,7 @@
       <c r="M40" s="23"/>
       <c r="N40" s="26"/>
     </row>
-    <row r="41" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:14" ht="19.5" customHeight="1">
       <c r="D41" s="23" t="s">
         <v>69</v>
       </c>
@@ -1954,7 +1955,7 @@
       <c r="M41" s="23"/>
       <c r="N41" s="26"/>
     </row>
-    <row r="42" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:14" ht="19.5" customHeight="1">
       <c r="D42" s="23" t="s">
         <v>69</v>
       </c>
@@ -1971,7 +1972,7 @@
       <c r="M42" s="23"/>
       <c r="N42" s="26"/>
     </row>
-    <row r="43" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:14" ht="19.5" customHeight="1">
       <c r="D43" s="23" t="s">
         <v>69</v>
       </c>
@@ -1988,7 +1989,7 @@
       <c r="M43" s="23"/>
       <c r="N43" s="26"/>
     </row>
-    <row r="44" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:14" ht="19.5" customHeight="1">
       <c r="D44" s="23" t="s">
         <v>69</v>
       </c>
@@ -2005,7 +2006,7 @@
       <c r="M44" s="23"/>
       <c r="N44" s="26"/>
     </row>
-    <row r="45" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:14" ht="19.5" customHeight="1">
       <c r="D45" s="23" t="s">
         <v>69</v>
       </c>
@@ -2027,6 +2028,6 @@
     <mergeCell ref="A4:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/Rancangan WBS.xlsx
+++ b/docs/Rancangan WBS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="105">
   <si>
     <t>Requirement:</t>
   </si>
@@ -331,6 +331,9 @@
   </si>
   <si>
     <t>images</t>
+  </si>
+  <si>
+    <t>is_aktif</t>
   </si>
 </sst>
 </file>
@@ -935,7 +938,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -945,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Y45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1"/>
@@ -1334,6 +1337,9 @@
       <c r="L10" s="23"/>
       <c r="M10" s="23"/>
       <c r="N10" s="26"/>
+      <c r="P10" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="Q10" s="3" t="s">
         <v>97</v>
       </c>

--- a/docs/Rancangan WBS.xlsx
+++ b/docs/Rancangan WBS.xlsx
@@ -938,7 +938,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/docs/Rancangan WBS.xlsx
+++ b/docs/Rancangan WBS.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SiTiOne\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8340"/>
   </bookViews>
@@ -10,8 +15,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="105">
   <si>
     <t>Requirement:</t>
   </si>
@@ -331,13 +336,16 @@
   </si>
   <si>
     <t>images</t>
+  </si>
+  <si>
+    <t>status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -935,21 +943,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Y45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" style="3" bestFit="1" customWidth="1"/>
@@ -970,7 +978,7 @@
     <col min="25" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25" ht="19.5" customHeight="1" thickBot="1">
+    <row r="2" spans="1:25" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -982,7 +990,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="19.5" customHeight="1" thickBot="1">
+    <row r="3" spans="1:25" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1051,7 +1059,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="19.5" customHeight="1">
+    <row r="4" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>3</v>
       </c>
@@ -1104,7 +1112,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="19.5" customHeight="1">
+    <row r="5" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="8" t="s">
         <v>7</v>
@@ -1155,7 +1163,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="19.5" customHeight="1">
+    <row r="6" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>17</v>
       </c>
@@ -1203,7 +1211,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="19.5" customHeight="1">
+    <row r="7" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>2</v>
       </c>
@@ -1248,7 +1256,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="19.5" customHeight="1">
+    <row r="8" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
@@ -1280,7 +1288,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="19.5" customHeight="1">
+    <row r="9" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>22</v>
       </c>
@@ -1312,7 +1320,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="19.5" customHeight="1" thickBot="1">
+    <row r="10" spans="1:25" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>15</v>
       </c>
@@ -1334,6 +1342,9 @@
       <c r="L10" s="23"/>
       <c r="M10" s="23"/>
       <c r="N10" s="26"/>
+      <c r="P10" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="Q10" s="3" t="s">
         <v>97</v>
       </c>
@@ -1341,7 +1352,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="19.5" customHeight="1">
+    <row r="11" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="23" t="s">
         <v>69</v>
       </c>
@@ -1364,7 +1375,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="19.5" customHeight="1" thickBot="1">
+    <row r="12" spans="1:25" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -1384,7 +1395,7 @@
       <c r="M12" s="23"/>
       <c r="N12" s="26"/>
     </row>
-    <row r="13" spans="1:25" ht="19.5" customHeight="1" thickBot="1">
+    <row r="13" spans="1:25" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>5</v>
       </c>
@@ -1407,7 +1418,7 @@
       <c r="M13" s="23"/>
       <c r="N13" s="26"/>
     </row>
-    <row r="14" spans="1:25" ht="19.5" customHeight="1">
+    <row r="14" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>11</v>
       </c>
@@ -1428,7 +1439,7 @@
       <c r="M14" s="23"/>
       <c r="N14" s="26"/>
     </row>
-    <row r="15" spans="1:25" ht="19.5" customHeight="1">
+    <row r="15" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>12</v>
       </c>
@@ -1451,7 +1462,7 @@
       <c r="M15" s="23"/>
       <c r="N15" s="26"/>
     </row>
-    <row r="16" spans="1:25" ht="19.5" customHeight="1">
+    <row r="16" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="19" t="s">
         <v>13</v>
@@ -1472,7 +1483,7 @@
       <c r="M16" s="23"/>
       <c r="N16" s="26"/>
     </row>
-    <row r="17" spans="1:14" ht="19.5" customHeight="1">
+    <row r="17" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="19" t="s">
         <v>21</v>
@@ -1493,7 +1504,7 @@
       <c r="M17" s="23"/>
       <c r="N17" s="26"/>
     </row>
-    <row r="18" spans="1:14" ht="19.5" customHeight="1">
+    <row r="18" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>16</v>
       </c>
@@ -1516,7 +1527,7 @@
       <c r="M18" s="23"/>
       <c r="N18" s="26"/>
     </row>
-    <row r="19" spans="1:14" ht="19.5" customHeight="1">
+    <row r="19" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="19" t="s">
         <v>18</v>
@@ -1537,7 +1548,7 @@
       <c r="M19" s="23"/>
       <c r="N19" s="26"/>
     </row>
-    <row r="20" spans="1:14" ht="19.5" customHeight="1">
+    <row r="20" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20" s="19" t="s">
         <v>20</v>
@@ -1558,7 +1569,7 @@
       <c r="M20" s="23"/>
       <c r="N20" s="26"/>
     </row>
-    <row r="21" spans="1:14" ht="19.5" customHeight="1">
+    <row r="21" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>24</v>
       </c>
@@ -1581,7 +1592,7 @@
       <c r="M21" s="23"/>
       <c r="N21" s="26"/>
     </row>
-    <row r="22" spans="1:14" ht="19.5" customHeight="1">
+    <row r="22" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
       <c r="B22" s="19" t="s">
         <v>26</v>
@@ -1602,7 +1613,7 @@
       <c r="M22" s="23"/>
       <c r="N22" s="26"/>
     </row>
-    <row r="23" spans="1:14" ht="19.5" customHeight="1">
+    <row r="23" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="19" t="s">
         <v>27</v>
@@ -1623,7 +1634,7 @@
       <c r="M23" s="23"/>
       <c r="N23" s="26"/>
     </row>
-    <row r="24" spans="1:14" ht="19.5" customHeight="1">
+    <row r="24" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>28</v>
       </c>
@@ -1646,7 +1657,7 @@
       <c r="M24" s="23"/>
       <c r="N24" s="26"/>
     </row>
-    <row r="25" spans="1:14" ht="19.5" customHeight="1">
+    <row r="25" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="19" t="s">
         <v>30</v>
@@ -1667,7 +1678,7 @@
       <c r="M25" s="23"/>
       <c r="N25" s="26"/>
     </row>
-    <row r="26" spans="1:14" ht="19.5" customHeight="1">
+    <row r="26" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26" s="19" t="s">
         <v>31</v>
@@ -1688,7 +1699,7 @@
       <c r="M26" s="23"/>
       <c r="N26" s="26"/>
     </row>
-    <row r="27" spans="1:14" ht="19.5" customHeight="1">
+    <row r="27" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>32</v>
       </c>
@@ -1711,7 +1722,7 @@
       <c r="M27" s="23"/>
       <c r="N27" s="26"/>
     </row>
-    <row r="28" spans="1:14" ht="19.5" customHeight="1" thickBot="1">
+    <row r="28" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
         <v>34</v>
       </c>
@@ -1734,7 +1745,7 @@
       <c r="M28" s="23"/>
       <c r="N28" s="26"/>
     </row>
-    <row r="29" spans="1:14" ht="19.5" customHeight="1">
+    <row r="29" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D29" s="23" t="s">
         <v>70</v>
       </c>
@@ -1751,7 +1762,7 @@
       <c r="M29" s="23"/>
       <c r="N29" s="26"/>
     </row>
-    <row r="30" spans="1:14" ht="19.5" customHeight="1">
+    <row r="30" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D30" s="23" t="s">
         <v>70</v>
       </c>
@@ -1768,7 +1779,7 @@
       <c r="M30" s="23"/>
       <c r="N30" s="26"/>
     </row>
-    <row r="31" spans="1:14" ht="19.5" customHeight="1">
+    <row r="31" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D31" s="23" t="s">
         <v>69</v>
       </c>
@@ -1785,7 +1796,7 @@
       <c r="M31" s="23"/>
       <c r="N31" s="26"/>
     </row>
-    <row r="32" spans="1:14" ht="19.5" customHeight="1">
+    <row r="32" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D32" s="23" t="s">
         <v>69</v>
       </c>
@@ -1802,7 +1813,7 @@
       <c r="M32" s="23"/>
       <c r="N32" s="26"/>
     </row>
-    <row r="33" spans="4:14" ht="19.5" customHeight="1">
+    <row r="33" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D33" s="23" t="s">
         <v>69</v>
       </c>
@@ -1819,7 +1830,7 @@
       <c r="M33" s="23"/>
       <c r="N33" s="26"/>
     </row>
-    <row r="34" spans="4:14" ht="19.5" customHeight="1">
+    <row r="34" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D34" s="23" t="s">
         <v>69</v>
       </c>
@@ -1836,7 +1847,7 @@
       <c r="M34" s="23"/>
       <c r="N34" s="26"/>
     </row>
-    <row r="35" spans="4:14" ht="19.5" customHeight="1">
+    <row r="35" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D35" s="23" t="s">
         <v>69</v>
       </c>
@@ -1853,7 +1864,7 @@
       <c r="M35" s="23"/>
       <c r="N35" s="26"/>
     </row>
-    <row r="36" spans="4:14" ht="19.5" customHeight="1">
+    <row r="36" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D36" s="23" t="s">
         <v>70</v>
       </c>
@@ -1870,7 +1881,7 @@
       <c r="M36" s="23"/>
       <c r="N36" s="26"/>
     </row>
-    <row r="37" spans="4:14" ht="19.5" customHeight="1">
+    <row r="37" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D37" s="23" t="s">
         <v>70</v>
       </c>
@@ -1887,7 +1898,7 @@
       <c r="M37" s="23"/>
       <c r="N37" s="26"/>
     </row>
-    <row r="38" spans="4:14" ht="19.5" customHeight="1">
+    <row r="38" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D38" s="23" t="s">
         <v>70</v>
       </c>
@@ -1904,7 +1915,7 @@
       <c r="M38" s="23"/>
       <c r="N38" s="26"/>
     </row>
-    <row r="39" spans="4:14" ht="19.5" customHeight="1">
+    <row r="39" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D39" s="23" t="s">
         <v>70</v>
       </c>
@@ -1921,7 +1932,7 @@
       <c r="M39" s="23"/>
       <c r="N39" s="26"/>
     </row>
-    <row r="40" spans="4:14" ht="19.5" customHeight="1">
+    <row r="40" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D40" s="23" t="s">
         <v>70</v>
       </c>
@@ -1938,7 +1949,7 @@
       <c r="M40" s="23"/>
       <c r="N40" s="26"/>
     </row>
-    <row r="41" spans="4:14" ht="19.5" customHeight="1">
+    <row r="41" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D41" s="23" t="s">
         <v>69</v>
       </c>
@@ -1955,7 +1966,7 @@
       <c r="M41" s="23"/>
       <c r="N41" s="26"/>
     </row>
-    <row r="42" spans="4:14" ht="19.5" customHeight="1">
+    <row r="42" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D42" s="23" t="s">
         <v>69</v>
       </c>
@@ -1972,7 +1983,7 @@
       <c r="M42" s="23"/>
       <c r="N42" s="26"/>
     </row>
-    <row r="43" spans="4:14" ht="19.5" customHeight="1">
+    <row r="43" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D43" s="23" t="s">
         <v>69</v>
       </c>
@@ -1989,7 +2000,7 @@
       <c r="M43" s="23"/>
       <c r="N43" s="26"/>
     </row>
-    <row r="44" spans="4:14" ht="19.5" customHeight="1">
+    <row r="44" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D44" s="23" t="s">
         <v>69</v>
       </c>
@@ -2006,7 +2017,7 @@
       <c r="M44" s="23"/>
       <c r="N44" s="26"/>
     </row>
-    <row r="45" spans="4:14" ht="19.5" customHeight="1">
+    <row r="45" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D45" s="23" t="s">
         <v>69</v>
       </c>

--- a/docs/Rancangan WBS.xlsx
+++ b/docs/Rancangan WBS.xlsx
@@ -245,9 +245,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>nim</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
@@ -336,6 +333,9 @@
   </si>
   <si>
     <t>event_id</t>
+  </si>
+  <si>
+    <t>status</t>
   </si>
 </sst>
 </file>
@@ -950,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -961,9 +961,8 @@
     <col min="3" max="3" width="9.140625" style="3"/>
     <col min="4" max="4" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="3"/>
-    <col min="7" max="7" width="7.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="15" width="9.140625" style="3"/>
+    <col min="6" max="13" width="9.28515625" style="3" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="3"/>
     <col min="16" max="17" width="31.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="22.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="31.5703125" style="3" bestFit="1" customWidth="1"/>
@@ -984,7 +983,7 @@
         <v>1</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1029,28 +1028,28 @@
         <v>71</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="T3" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="T3" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="U3" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1082,25 +1081,25 @@
         <v>72</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S4" s="3" t="s">
         <v>72</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U4" s="3" t="s">
         <v>72</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W4" s="3" t="s">
         <v>72</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1124,28 +1123,28 @@
       <c r="M5" s="25"/>
       <c r="N5" s="26"/>
       <c r="P5" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R5" s="3" t="s">
         <v>72</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T5" s="3" t="s">
         <v>72</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V5" s="3" t="s">
         <v>72</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X5" s="3" t="s">
         <v>72</v>
@@ -1172,31 +1171,31 @@
       <c r="M6" s="23"/>
       <c r="N6" s="26"/>
       <c r="P6" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1220,28 +1219,28 @@
       <c r="M7" s="23"/>
       <c r="N7" s="26"/>
       <c r="P7" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1267,13 +1266,13 @@
       <c r="M8" s="23"/>
       <c r="N8" s="26"/>
       <c r="P8" s="3" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1299,13 +1298,13 @@
       <c r="M9" s="23"/>
       <c r="N9" s="26"/>
       <c r="P9" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1331,13 +1330,13 @@
       <c r="M10" s="23"/>
       <c r="N10" s="26"/>
       <c r="P10" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1357,10 +1356,10 @@
       <c r="M11" s="23"/>
       <c r="N11" s="26"/>
       <c r="Q11" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/docs/Rancangan WBS.xlsx
+++ b/docs/Rancangan WBS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="105">
   <si>
     <t>Requirement:</t>
   </si>
@@ -336,6 +336,9 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>News Controller - edit</t>
   </si>
 </sst>
 </file>
@@ -948,10 +951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:X45"/>
+  <dimension ref="A2:X46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2021,6 +2024,22 @@
       <c r="M45" s="23"/>
       <c r="N45" s="26"/>
     </row>
+    <row r="46" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="23"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A4:A5"/>

--- a/docs/Rancangan WBS.xlsx
+++ b/docs/Rancangan WBS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="100">
   <si>
     <t>Requirement:</t>
   </si>
@@ -176,15 +176,6 @@
     <t>Event Controller - detail</t>
   </si>
   <si>
-    <t>/beasiswa/{edit}</t>
-  </si>
-  <si>
-    <t>/ukm/{edit}</t>
-  </si>
-  <si>
-    <t>/event/{edit}</t>
-  </si>
-  <si>
     <t>Home Controller - edit</t>
   </si>
   <si>
@@ -200,18 +191,6 @@
     <t>CSS/AJAX/Animation/Theme</t>
   </si>
   <si>
-    <t>/beasiswa/{new}</t>
-  </si>
-  <si>
-    <t>/news/{new}</t>
-  </si>
-  <si>
-    <t>/ukm/{new}</t>
-  </si>
-  <si>
-    <t>/event/{new}</t>
-  </si>
-  <si>
     <t>Home Controller - new</t>
   </si>
   <si>
@@ -227,9 +206,6 @@
     <t>Event Controller - new</t>
   </si>
   <si>
-    <t>/edits/{edit}</t>
-  </si>
-  <si>
     <t>edits Controller - edit</t>
   </si>
   <si>
@@ -336,6 +312,18 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>/beasiswa/{id}/edit</t>
+  </si>
+  <si>
+    <t>/news/{id}/edit</t>
+  </si>
+  <si>
+    <t>/ukm/{id}/edit</t>
+  </si>
+  <si>
+    <t>/event/{id}/edit</t>
   </si>
 </sst>
 </file>
@@ -950,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -983,7 +971,7 @@
         <v>1</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1025,31 +1013,31 @@
       </c>
       <c r="N3" s="26"/>
       <c r="P3" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="S3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="W3" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="T3" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="X3" s="4" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1060,7 +1048,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E4" s="23" t="s">
         <v>39</v>
@@ -1075,31 +1063,31 @@
       <c r="M4" s="23"/>
       <c r="N4" s="26"/>
       <c r="P4" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="V4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X4" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1108,7 +1096,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>38</v>
@@ -1123,31 +1111,31 @@
       <c r="M5" s="25"/>
       <c r="N5" s="26"/>
       <c r="P5" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1156,7 +1144,7 @@
       </c>
       <c r="B6" s="8"/>
       <c r="D6" s="23" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>11</v>
@@ -1171,31 +1159,31 @@
       <c r="M6" s="23"/>
       <c r="N6" s="26"/>
       <c r="P6" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="R6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="U6" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="S6" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="V6" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1204,7 +1192,7 @@
       </c>
       <c r="B7" s="8"/>
       <c r="D7" s="23" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>12</v>
@@ -1219,28 +1207,28 @@
       <c r="M7" s="23"/>
       <c r="N7" s="26"/>
       <c r="P7" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="S7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="T7" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="T7" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="V7" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1251,7 +1239,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>16</v>
@@ -1266,13 +1254,13 @@
       <c r="M8" s="23"/>
       <c r="N8" s="26"/>
       <c r="P8" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1283,7 +1271,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E9" s="23" t="s">
         <v>24</v>
@@ -1298,13 +1286,13 @@
       <c r="M9" s="23"/>
       <c r="N9" s="26"/>
       <c r="P9" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1315,7 +1303,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E10" s="23" t="s">
         <v>28</v>
@@ -1330,18 +1318,18 @@
       <c r="M10" s="23"/>
       <c r="N10" s="26"/>
       <c r="P10" s="3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="23" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>40</v>
@@ -1356,10 +1344,10 @@
       <c r="M11" s="23"/>
       <c r="N11" s="26"/>
       <c r="Q11" s="3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1367,7 +1355,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>41</v>
@@ -1390,7 +1378,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>42</v>
@@ -1411,7 +1399,7 @@
       </c>
       <c r="B14" s="17"/>
       <c r="D14" s="23" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>43</v>
@@ -1434,7 +1422,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>44</v>
@@ -1455,7 +1443,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>33</v>
@@ -1476,7 +1464,7 @@
         <v>21</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>14</v>
@@ -1499,7 +1487,7 @@
         <v>19</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>19</v>
@@ -1520,7 +1508,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>25</v>
@@ -1541,7 +1529,7 @@
         <v>20</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E20" s="23" t="s">
         <v>29</v>
@@ -1564,7 +1552,7 @@
         <v>25</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E21" s="23" t="s">
         <v>45</v>
@@ -1585,7 +1573,7 @@
         <v>26</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E22" s="23" t="s">
         <v>46</v>
@@ -1606,7 +1594,7 @@
         <v>27</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E23" s="23" t="s">
         <v>47</v>
@@ -1629,7 +1617,7 @@
         <v>29</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E24" s="23" t="s">
         <v>48</v>
@@ -1650,7 +1638,7 @@
         <v>30</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E25" s="23" t="s">
         <v>49</v>
@@ -1671,7 +1659,7 @@
         <v>31</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E26" s="23" t="s">
         <v>35</v>
@@ -1694,10 +1682,10 @@
         <v>33</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
@@ -1717,10 +1705,10 @@
         <v>35</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
@@ -1734,10 +1722,10 @@
     </row>
     <row r="29" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D29" s="23" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
@@ -1751,10 +1739,10 @@
     </row>
     <row r="30" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D30" s="23" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="F30" s="23"/>
       <c r="G30" s="23"/>
@@ -1768,10 +1756,10 @@
     </row>
     <row r="31" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D31" s="23" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F31" s="23"/>
       <c r="G31" s="23"/>
@@ -1785,10 +1773,10 @@
     </row>
     <row r="32" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D32" s="23" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F32" s="23"/>
       <c r="G32" s="23"/>
@@ -1802,10 +1790,10 @@
     </row>
     <row r="33" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D33" s="23" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F33" s="23"/>
       <c r="G33" s="23"/>
@@ -1819,10 +1807,10 @@
     </row>
     <row r="34" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D34" s="23" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F34" s="23"/>
       <c r="G34" s="23"/>
@@ -1836,10 +1824,10 @@
     </row>
     <row r="35" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D35" s="23" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F35" s="23"/>
       <c r="G35" s="23"/>
@@ -1853,10 +1841,10 @@
     </row>
     <row r="36" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D36" s="23" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F36" s="23"/>
       <c r="G36" s="23"/>
@@ -1870,10 +1858,10 @@
     </row>
     <row r="37" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D37" s="23" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="F37" s="23"/>
       <c r="G37" s="23"/>
@@ -1887,10 +1875,10 @@
     </row>
     <row r="38" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D38" s="23" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="F38" s="23"/>
       <c r="G38" s="23"/>
@@ -1904,10 +1892,10 @@
     </row>
     <row r="39" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D39" s="23" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="F39" s="23"/>
       <c r="G39" s="23"/>
@@ -1921,10 +1909,10 @@
     </row>
     <row r="40" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D40" s="23" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="F40" s="23"/>
       <c r="G40" s="23"/>
@@ -1938,10 +1926,10 @@
     </row>
     <row r="41" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D41" s="23" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F41" s="23"/>
       <c r="G41" s="23"/>
@@ -1955,10 +1943,10 @@
     </row>
     <row r="42" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D42" s="23" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F42" s="23"/>
       <c r="G42" s="23"/>
@@ -1972,10 +1960,10 @@
     </row>
     <row r="43" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D43" s="23" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F43" s="23"/>
       <c r="G43" s="23"/>
@@ -1989,10 +1977,10 @@
     </row>
     <row r="44" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D44" s="23" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F44" s="23"/>
       <c r="G44" s="23"/>
@@ -2006,10 +1994,10 @@
     </row>
     <row r="45" spans="4:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D45" s="23" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F45" s="23"/>
       <c r="G45" s="23"/>
